--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_0_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1212120.329586353</v>
+        <v>1119107.937294735</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>260455.3041707433</v>
+        <v>272352.1413834832</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16527099.24834992</v>
+        <v>11503606.42357042</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5948769.663148073</v>
+        <v>8268493.805430858</v>
       </c>
     </row>
     <row r="11">
@@ -658,23 +658,23 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="G2" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.1776483877525586</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>3.376898027766035</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -782,16 +782,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="R3" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="S3" t="n">
-        <v>3.516869431124803</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="T3" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.376898027766035</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.1776483877525586</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.516869431124803</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="I6" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="R6" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.1776483877525586</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>3.376898027766035</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>3.097658594934726</v>
       </c>
-      <c r="U9" t="n">
-        <v>3.516869431124803</v>
-      </c>
       <c r="V9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>3.516869431124803</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>228.6709245312629</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.8912792871176</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>157.8322278147902</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>147.9754831086837</v>
       </c>
       <c r="H12" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S12" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>201.8717860952419</v>
       </c>
       <c r="Y12" t="n">
         <v>223.3842861340256</v>
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>9.894926544570549</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.416636100828</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>145.4619076189266</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.65185754899971</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.22331673875185</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>323.723827136799</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>28.44259854119019</v>
       </c>
       <c r="G14" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>332.2997728652675</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8442261590961208</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>211.8708247664476</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -1754,7 +1754,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>44.60047557776295</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>130.2965370355339</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.4371603754213</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>122.3165576320849</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.5842356695385</v>
+        <v>37.5094897281862</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.1732982980278</v>
@@ -1903,10 +1903,10 @@
         <v>250.0355428294531</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>52.41817517784278</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>21.95621490733493</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -1934,7 +1934,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>147.9754831086837</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>151.8504313525377</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>224.2008427698061</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>72.55287523770012</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>130.2965370355339</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>112.6675807849607</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>196.5908544939913</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8442261590956777</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>36.71036076875626</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>6.443010918170889</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>6.389128454585962</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>125.4553537386325</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5911946793677</v>
+        <v>76.06137379588587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U23" t="n">
         <v>250.0355428294531</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2399,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>25.40959898668987</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2459,13 +2459,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>28.89312684226896</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>79.61244519333782</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>174.4371603754213</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>122.3165576320849</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
         <v>371.4789120616362</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>39.38296721969407</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>228.6709245312625</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>86.1687165307291</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>106.1983606904851</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>118.3074313936392</v>
       </c>
       <c r="I27" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,13 +2693,13 @@
         <v>237.1774694070239</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>6.443010918170939</v>
       </c>
       <c r="G28" t="n">
-        <v>157.8268357890596</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>177.4460499576807</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2997728652675</v>
+        <v>211.9505565086953</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>65.05619721654362</v>
+        <v>140.5095451630825</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>177.3046992815431</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>237.1774694070239</v>
@@ -2939,7 +2939,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>16.15069457683456</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>55.47443185834746</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.0559694104069</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.22331673875185</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>213.9460490364109</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>22.1413173734244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>52.40094045332249</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9754831086837</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>118.3074313936392</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3167,13 +3167,13 @@
         <v>237.1774694070239</v>
       </c>
       <c r="V33" t="n">
-        <v>83.56015759045131</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130.2965370355339</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>8.132332248944927</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>48.39558487642771</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>4.69714170098264</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>216.1732982980278</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3353,13 +3353,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>5.479476236769759</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H36" t="n">
         <v>118.3074313936392</v>
@@ -3395,22 +3395,22 @@
         <v>86.9668093141174</v>
       </c>
       <c r="S36" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>107.2857579942099</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>168.0559694104069</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>55.47443185834745</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.22331673875185</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>6.44301091817096</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>187.0241480505597</v>
+        <v>25.25569216782125</v>
       </c>
       <c r="T38" t="n">
         <v>216.1732982980278</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3587,13 +3587,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>142.1584302444879</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>211.8708247664476</v>
       </c>
       <c r="U39" t="n">
-        <v>137.4703533558718</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -3650,7 +3650,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>145.4619076189266</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>151.2918103885796</v>
       </c>
       <c r="S40" t="n">
-        <v>224.2008427698061</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>72.55287523770012</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.5842356695385</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>7.961095473836259</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>332.8912032503305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>147.9754831086837</v>
@@ -3839,7 +3839,7 @@
         <v>118.3074313936392</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>33.39894573733822</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.691580125958462</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -3887,7 +3887,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>75.74723767418689</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.0064803333194</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>8.132332248944941</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>87.85031520134814</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.1732982980278</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>19.33867788710291</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>147.9754831086837</v>
       </c>
       <c r="H45" t="n">
-        <v>118.3074313936392</v>
+        <v>117.1402516460729</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>211.8708247664476</v>
       </c>
       <c r="U45" t="n">
-        <v>63.26443919001774</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>6.44301091817096</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>290.3107070893353</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2813495544899843</v>
+        <v>4.013185735174188</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="J2" t="n">
         <v>0.2813495544899843</v>
@@ -4366,16 +4366,16 @@
         <v>7.244751028117094</v>
       </c>
       <c r="V2" t="n">
-        <v>3.833742919262513</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="W2" t="n">
-        <v>3.833742919262513</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="X2" t="n">
-        <v>3.833742919262513</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.833742919262513</v>
+        <v>7.244751028117094</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G3" t="n">
         <v>0.2813495544899843</v>
@@ -4418,43 +4418,43 @@
         <v>6.937899146382215</v>
       </c>
       <c r="M3" t="n">
-        <v>6.937899146382215</v>
+        <v>10.41959988319577</v>
       </c>
       <c r="N3" t="n">
-        <v>7.104076250872104</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="O3" t="n">
-        <v>10.58577698768566</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="P3" t="n">
         <v>14.06747772449921</v>
       </c>
       <c r="Q3" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="R3" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="S3" t="n">
-        <v>6.962690994954155</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="T3" t="n">
-        <v>3.410297630181626</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="U3" t="n">
-        <v>3.410297630181626</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="V3" t="n">
-        <v>3.410297630181626</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="W3" t="n">
-        <v>3.410297630181626</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
     </row>
     <row r="4">
@@ -4555,22 +4555,22 @@
         <v>7.244751028117094</v>
       </c>
       <c r="F5" t="n">
-        <v>7.244751028117094</v>
+        <v>4.013185735174188</v>
       </c>
       <c r="G5" t="n">
-        <v>7.244751028117094</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="H5" t="n">
-        <v>7.244751028117094</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="I5" t="n">
-        <v>7.244751028117094</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="J5" t="n">
-        <v>3.833742919262513</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="L5" t="n">
         <v>0.2813495544899843</v>
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>10.51508435972668</v>
+      </c>
+      <c r="C6" t="n">
+        <v>10.51508435972668</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.51508435972668</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.51508435972668</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10.51508435972668</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.51508435972668</v>
+      </c>
+      <c r="H6" t="n">
         <v>7.386136284035041</v>
       </c>
-      <c r="C6" t="n">
-        <v>7.386136284035041</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.386136284035041</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.386136284035041</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7.386136284035041</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7.386136284035041</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>3.833742919262513</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.2813495544899843</v>
       </c>
       <c r="J6" t="n">
         <v>0.2813495544899843</v>
       </c>
       <c r="K6" t="n">
-        <v>3.45619840956866</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="L6" t="n">
-        <v>3.45619840956866</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="M6" t="n">
         <v>3.622375514058549</v>
@@ -4667,31 +4667,31 @@
         <v>14.06747772449921</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="R6" t="n">
         <v>10.51508435972668</v>
       </c>
       <c r="S6" t="n">
-        <v>7.386136284035041</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="T6" t="n">
-        <v>7.386136284035041</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="U6" t="n">
-        <v>7.386136284035041</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="V6" t="n">
-        <v>7.386136284035041</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="W6" t="n">
-        <v>7.386136284035041</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="X6" t="n">
-        <v>7.386136284035041</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.386136284035041</v>
+        <v>10.51508435972668</v>
       </c>
     </row>
     <row r="7">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2813495544899843</v>
+        <v>4.013185735174188</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2813495544899843</v>
+        <v>0.4607923704016597</v>
       </c>
       <c r="L8" t="n">
         <v>0.2813495544899843</v>
@@ -4819,37 +4819,37 @@
         <v>7.244751028117094</v>
       </c>
       <c r="O8" t="n">
-        <v>3.692357663344566</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.244751028117094</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="J9" t="n">
         <v>0.2813495544899843</v>
@@ -4889,13 +4889,13 @@
         <v>3.45619840956866</v>
       </c>
       <c r="L9" t="n">
-        <v>3.45619840956866</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="M9" t="n">
-        <v>3.622375514058549</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="N9" t="n">
-        <v>7.104076250872104</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="O9" t="n">
         <v>10.58577698768566</v>
@@ -4904,31 +4904,31 @@
         <v>14.06747772449921</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="R9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="S9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="T9" t="n">
-        <v>10.93852964880757</v>
+        <v>10.51508435972668</v>
       </c>
       <c r="U9" t="n">
         <v>7.386136284035041</v>
       </c>
       <c r="V9" t="n">
+        <v>7.386136284035041</v>
+      </c>
+      <c r="W9" t="n">
         <v>3.833742919262513</v>
       </c>
-      <c r="W9" t="n">
-        <v>0.2813495544899843</v>
-      </c>
       <c r="X9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1335.404286151167</v>
+        <v>466.06588246448</v>
       </c>
       <c r="C11" t="n">
-        <v>981.6613595035112</v>
+        <v>466.06588246448</v>
       </c>
       <c r="D11" t="n">
-        <v>640.4773598648978</v>
+        <v>466.06588246448</v>
       </c>
       <c r="E11" t="n">
-        <v>265.2461355602148</v>
+        <v>466.06588246448</v>
       </c>
       <c r="F11" t="n">
-        <v>265.2461355602148</v>
+        <v>466.06588246448</v>
       </c>
       <c r="G11" t="n">
-        <v>34.26540371045431</v>
+        <v>466.06588246448</v>
       </c>
       <c r="H11" t="n">
-        <v>34.26540371045431</v>
+        <v>221.7312569219369</v>
       </c>
       <c r="I11" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J11" t="n">
-        <v>79.03615234277407</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K11" t="n">
-        <v>253.4009645124893</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L11" t="n">
-        <v>524.6989948305063</v>
+        <v>524.6989948305059</v>
       </c>
       <c r="M11" t="n">
-        <v>855.4462867779242</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N11" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O11" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P11" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q11" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R11" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S11" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T11" t="n">
-        <v>1713.270185522716</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="U11" t="n">
-        <v>1713.270185522716</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="V11" t="n">
-        <v>1713.270185522716</v>
+        <v>1170.792325010412</v>
       </c>
       <c r="W11" t="n">
-        <v>1713.270185522716</v>
+        <v>829.4827655904458</v>
       </c>
       <c r="X11" t="n">
-        <v>1713.270185522716</v>
+        <v>466.06588246448</v>
       </c>
       <c r="Y11" t="n">
-        <v>1713.270185522716</v>
+        <v>466.06588246448</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1039.135267348392</v>
+        <v>533.9279791747252</v>
       </c>
       <c r="C12" t="n">
-        <v>879.7087746061795</v>
+        <v>344.5157049076889</v>
       </c>
       <c r="D12" t="n">
-        <v>718.9286583672113</v>
+        <v>183.7355886687207</v>
       </c>
       <c r="E12" t="n">
-        <v>545.3654544886257</v>
+        <v>183.7355886687207</v>
       </c>
       <c r="F12" t="n">
-        <v>384.9377382058698</v>
+        <v>183.7355886687207</v>
       </c>
       <c r="G12" t="n">
-        <v>235.4675532476034</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9650972944325</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I12" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J12" t="n">
-        <v>34.26540371045431</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K12" t="n">
-        <v>195.1830012904965</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L12" t="n">
-        <v>477.843112036434</v>
+        <v>497.8311447175246</v>
       </c>
       <c r="M12" t="n">
-        <v>852.4487932782868</v>
+        <v>872.4368259593773</v>
       </c>
       <c r="N12" t="n">
-        <v>1255.389061795498</v>
+        <v>1275.377094476588</v>
       </c>
       <c r="O12" t="n">
-        <v>1393.850179535332</v>
+        <v>1588.241637038315</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.875055820307</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q12" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R12" t="n">
-        <v>1713.270185522716</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="S12" t="n">
-        <v>1534.174529682773</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="T12" t="n">
-        <v>1534.174529682773</v>
+        <v>1411.41398948174</v>
       </c>
       <c r="U12" t="n">
-        <v>1534.174529682773</v>
+        <v>1411.41398948174</v>
       </c>
       <c r="V12" t="n">
-        <v>1534.174529682773</v>
+        <v>1411.41398948174</v>
       </c>
       <c r="W12" t="n">
-        <v>1264.775960413064</v>
+        <v>1142.015420212032</v>
       </c>
       <c r="X12" t="n">
-        <v>1264.775960413064</v>
+        <v>938.1045251663327</v>
       </c>
       <c r="Y12" t="n">
-        <v>1039.135267348392</v>
+        <v>712.4638321016603</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="C13" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="D13" t="n">
-        <v>260.0536878203072</v>
+        <v>187.3674923536821</v>
       </c>
       <c r="E13" t="n">
-        <v>260.0536878203072</v>
+        <v>44.26027900800031</v>
       </c>
       <c r="F13" t="n">
-        <v>260.0536878203072</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G13" t="n">
-        <v>260.0536878203072</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H13" t="n">
-        <v>256.6025402437133</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I13" t="n">
-        <v>109.6713204266156</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J13" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K13" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L13" t="n">
         <v>105.1473006107386</v>
@@ -5220,31 +5220,31 @@
         <v>334.0166340210667</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R13" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S13" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T13" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U13" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V13" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W13" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="X13" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1713.270185522715</v>
+        <v>939.8604173134889</v>
       </c>
       <c r="C14" t="n">
-        <v>1713.270185522715</v>
+        <v>586.1174906658335</v>
       </c>
       <c r="D14" t="n">
-        <v>1713.270185522715</v>
+        <v>586.1174906658335</v>
       </c>
       <c r="E14" t="n">
-        <v>1386.27642073807</v>
+        <v>586.1174906658335</v>
       </c>
       <c r="F14" t="n">
-        <v>979.0044514047228</v>
+        <v>557.3875931494798</v>
       </c>
       <c r="G14" t="n">
         <v>557.3875931494798</v>
@@ -5278,13 +5278,13 @@
         <v>34.2654037104543</v>
       </c>
       <c r="J14" t="n">
-        <v>79.03615234277376</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K14" t="n">
         <v>253.400964512489</v>
       </c>
       <c r="L14" t="n">
-        <v>524.6989948305059</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M14" t="n">
         <v>855.4462867779238</v>
@@ -5305,25 +5305,25 @@
         <v>1713.270185522715</v>
       </c>
       <c r="S14" t="n">
-        <v>1713.270185522715</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="T14" t="n">
-        <v>1713.270185522715</v>
+        <v>1516.542565231272</v>
       </c>
       <c r="U14" t="n">
-        <v>1713.270185522715</v>
+        <v>1263.981410858087</v>
       </c>
       <c r="V14" t="n">
-        <v>1713.270185522715</v>
+        <v>939.8604173134889</v>
       </c>
       <c r="W14" t="n">
-        <v>1713.270185522715</v>
+        <v>939.8604173134889</v>
       </c>
       <c r="X14" t="n">
-        <v>1713.270185522715</v>
+        <v>939.8604173134889</v>
       </c>
       <c r="Y14" t="n">
-        <v>1713.270185522715</v>
+        <v>939.8604173134889</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.2654037104543</v>
+        <v>276.7452135334007</v>
       </c>
       <c r="C15" t="n">
-        <v>34.2654037104543</v>
+        <v>276.7452135334007</v>
       </c>
       <c r="D15" t="n">
-        <v>34.2654037104543</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="E15" t="n">
-        <v>34.2654037104543</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="F15" t="n">
-        <v>34.2654037104543</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="G15" t="n">
-        <v>34.2654037104543</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="H15" t="n">
-        <v>34.2654037104543</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="I15" t="n">
         <v>34.2654037104543</v>
       </c>
       <c r="J15" t="n">
-        <v>54.25343639154484</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K15" t="n">
-        <v>215.1710339715871</v>
+        <v>195.1830012904965</v>
       </c>
       <c r="L15" t="n">
-        <v>497.8311447175246</v>
+        <v>303.4396872145412</v>
       </c>
       <c r="M15" t="n">
         <v>678.0453684563939</v>
@@ -5390,19 +5390,19 @@
         <v>1232.318333641798</v>
       </c>
       <c r="U15" t="n">
-        <v>992.7451322205616</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="V15" t="n">
-        <v>749.6654141241956</v>
+        <v>989.2386155454319</v>
       </c>
       <c r="W15" t="n">
-        <v>480.266844854487</v>
+        <v>719.8400462757232</v>
       </c>
       <c r="X15" t="n">
-        <v>260.7588504711833</v>
+        <v>500.3320518924196</v>
       </c>
       <c r="Y15" t="n">
-        <v>35.11815740651099</v>
+        <v>455.2810664603358</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="C16" t="n">
-        <v>34.2654037104543</v>
+        <v>165.8780673827108</v>
       </c>
       <c r="D16" t="n">
-        <v>34.2654037104543</v>
+        <v>165.8780673827108</v>
       </c>
       <c r="E16" t="n">
-        <v>34.2654037104543</v>
+        <v>165.8780673827108</v>
       </c>
       <c r="F16" t="n">
-        <v>34.2654037104543</v>
+        <v>165.8780673827108</v>
       </c>
       <c r="G16" t="n">
         <v>34.2654037104543</v>
@@ -5460,28 +5460,28 @@
         <v>334.0166340210667</v>
       </c>
       <c r="R16" t="n">
-        <v>157.8174821267017</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S16" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T16" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U16" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V16" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W16" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="X16" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>562.9152565605503</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="C17" t="n">
-        <v>562.9152565605503</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="D17" t="n">
-        <v>221.7312569219369</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="E17" t="n">
-        <v>221.7312569219369</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="F17" t="n">
-        <v>221.7312569219369</v>
+        <v>455.8822619656972</v>
       </c>
       <c r="G17" t="n">
-        <v>221.7312569219369</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H17" t="n">
-        <v>221.7312569219369</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I17" t="n">
         <v>34.2654037104543</v>
       </c>
       <c r="J17" t="n">
-        <v>79.03615234277376</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K17" t="n">
         <v>253.400964512489</v>
       </c>
       <c r="L17" t="n">
-        <v>524.6989948305063</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M17" t="n">
-        <v>855.4462867779243</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N17" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O17" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P17" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q17" t="n">
         <v>1713.270185522715</v>
       </c>
       <c r="R17" t="n">
-        <v>1607.629543432272</v>
+        <v>1675.381812059901</v>
       </c>
       <c r="S17" t="n">
-        <v>1410.901923140829</v>
+        <v>1675.381812059901</v>
       </c>
       <c r="T17" t="n">
-        <v>1192.545056173124</v>
+        <v>1457.024945092196</v>
       </c>
       <c r="U17" t="n">
-        <v>939.9839017999391</v>
+        <v>1204.463790719011</v>
       </c>
       <c r="V17" t="n">
-        <v>615.862908255341</v>
+        <v>1204.463790719011</v>
       </c>
       <c r="W17" t="n">
-        <v>562.9152565605503</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="X17" t="n">
-        <v>562.9152565605503</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="Y17" t="n">
-        <v>562.9152565605503</v>
+        <v>863.1542312990442</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>820.1870758780951</v>
+        <v>637.5813647394453</v>
       </c>
       <c r="C18" t="n">
-        <v>798.0090810222013</v>
+        <v>637.5813647394453</v>
       </c>
       <c r="D18" t="n">
-        <v>637.228964783233</v>
+        <v>476.8012485004771</v>
       </c>
       <c r="E18" t="n">
-        <v>463.6657609046475</v>
+        <v>303.2380446218916</v>
       </c>
       <c r="F18" t="n">
         <v>303.2380446218916</v>
@@ -5594,19 +5594,19 @@
         <v>34.2654037104543</v>
       </c>
       <c r="J18" t="n">
-        <v>54.25343639154484</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K18" t="n">
-        <v>54.25343639154484</v>
+        <v>195.1830012904965</v>
       </c>
       <c r="L18" t="n">
-        <v>336.9135471374823</v>
+        <v>477.843112036434</v>
       </c>
       <c r="M18" t="n">
-        <v>711.5192283793351</v>
+        <v>852.4487932782868</v>
       </c>
       <c r="N18" t="n">
-        <v>1080.985636973605</v>
+        <v>1255.389061795498</v>
       </c>
       <c r="O18" t="n">
         <v>1393.850179535331</v>
@@ -5624,22 +5624,22 @@
         <v>1713.270185522715</v>
       </c>
       <c r="T18" t="n">
-        <v>1713.270185522715</v>
+        <v>1499.259251415192</v>
       </c>
       <c r="U18" t="n">
-        <v>1713.270185522715</v>
+        <v>1259.686049993956</v>
       </c>
       <c r="V18" t="n">
-        <v>1713.270185522715</v>
+        <v>1016.60633189759</v>
       </c>
       <c r="W18" t="n">
-        <v>1443.871616253006</v>
+        <v>863.2220578041176</v>
       </c>
       <c r="X18" t="n">
-        <v>1224.363621869703</v>
+        <v>863.2220578041176</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.7229288050303</v>
+        <v>637.5813647394453</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.2654037104543</v>
+        <v>202.4039703488102</v>
       </c>
       <c r="C19" t="n">
         <v>34.2654037104543</v>
@@ -5700,25 +5700,25 @@
         <v>334.0166340210667</v>
       </c>
       <c r="S19" t="n">
-        <v>107.5511362737878</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T19" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U19" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V19" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W19" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="X19" t="n">
-        <v>34.2654037104543</v>
+        <v>202.4039703488102</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.2654037104543</v>
+        <v>202.4039703488102</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>750.6806276537507</v>
+        <v>864.4862648102768</v>
       </c>
       <c r="C20" t="n">
-        <v>750.6806276537507</v>
+        <v>864.4862648102768</v>
       </c>
       <c r="D20" t="n">
-        <v>409.4966280151373</v>
+        <v>523.3022651716633</v>
       </c>
       <c r="E20" t="n">
-        <v>34.26540371045429</v>
+        <v>148.0710408669803</v>
       </c>
       <c r="F20" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G20" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H20" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I20" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J20" t="n">
-        <v>79.03615234277376</v>
+        <v>79.03615234277413</v>
       </c>
       <c r="K20" t="n">
-        <v>253.400964512489</v>
+        <v>253.4009645124897</v>
       </c>
       <c r="L20" t="n">
-        <v>524.6989948305054</v>
+        <v>524.6989948305068</v>
       </c>
       <c r="M20" t="n">
-        <v>855.4462867779233</v>
+        <v>855.4462867779247</v>
       </c>
       <c r="N20" t="n">
-        <v>1184.702979677704</v>
+        <v>1184.702979677705</v>
       </c>
       <c r="O20" t="n">
-        <v>1458.701379414584</v>
+        <v>1458.701379414586</v>
       </c>
       <c r="P20" t="n">
-        <v>1648.405101797588</v>
+        <v>1648.405101797589</v>
       </c>
       <c r="Q20" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R20" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="S20" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="T20" t="n">
-        <v>1514.693564821713</v>
+        <v>1494.913318555011</v>
       </c>
       <c r="U20" t="n">
-        <v>1514.693564821713</v>
+        <v>1242.352164181826</v>
       </c>
       <c r="V20" t="n">
-        <v>1514.693564821713</v>
+        <v>1242.352164181826</v>
       </c>
       <c r="W20" t="n">
-        <v>1514.693564821713</v>
+        <v>1242.352164181826</v>
       </c>
       <c r="X20" t="n">
-        <v>1514.693564821713</v>
+        <v>1242.352164181826</v>
       </c>
       <c r="Y20" t="n">
-        <v>1128.546527025299</v>
+        <v>1242.352164181826</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>34.26540371045429</v>
+        <v>260.7588504711838</v>
       </c>
       <c r="C21" t="n">
-        <v>34.26540371045429</v>
+        <v>71.34657620414751</v>
       </c>
       <c r="D21" t="n">
-        <v>34.26540371045429</v>
+        <v>71.34657620414751</v>
       </c>
       <c r="E21" t="n">
-        <v>34.26540371045429</v>
+        <v>71.34657620414751</v>
       </c>
       <c r="F21" t="n">
-        <v>34.26540371045429</v>
+        <v>71.34657620414751</v>
       </c>
       <c r="G21" t="n">
-        <v>34.26540371045429</v>
+        <v>71.34657620414751</v>
       </c>
       <c r="H21" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I21" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J21" t="n">
-        <v>34.26540371045429</v>
+        <v>54.25343639154485</v>
       </c>
       <c r="K21" t="n">
-        <v>195.1830012904965</v>
+        <v>54.25343639154485</v>
       </c>
       <c r="L21" t="n">
-        <v>477.843112036434</v>
+        <v>336.9135471374824</v>
       </c>
       <c r="M21" t="n">
-        <v>852.4487932782868</v>
+        <v>711.5192283793351</v>
       </c>
       <c r="N21" t="n">
-        <v>1080.985636973604</v>
+        <v>1114.459496896546</v>
       </c>
       <c r="O21" t="n">
-        <v>1393.850179535331</v>
+        <v>1427.324039458272</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.875055820306</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q21" t="n">
-        <v>1713.270185522715</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="R21" t="n">
-        <v>1625.424923589263</v>
+        <v>1625.424923589264</v>
       </c>
       <c r="S21" t="n">
-        <v>1446.32926774932</v>
+        <v>1446.329267749321</v>
       </c>
       <c r="T21" t="n">
-        <v>1232.318333641797</v>
+        <v>1232.318333641798</v>
       </c>
       <c r="U21" t="n">
-        <v>992.7451322205611</v>
+        <v>992.745132220562</v>
       </c>
       <c r="V21" t="n">
-        <v>749.6654141241952</v>
+        <v>749.6654141241961</v>
       </c>
       <c r="W21" t="n">
-        <v>480.2668448544865</v>
+        <v>480.2668448544874</v>
       </c>
       <c r="X21" t="n">
-        <v>260.7588504711829</v>
+        <v>260.7588504711838</v>
       </c>
       <c r="Y21" t="n">
-        <v>35.11815740651053</v>
+        <v>260.7588504711838</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40.77349554699055</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="C22" t="n">
-        <v>40.77349554699055</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="D22" t="n">
-        <v>40.77349554699055</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="E22" t="n">
-        <v>40.77349554699055</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="F22" t="n">
-        <v>40.77349554699055</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G22" t="n">
-        <v>40.77349554699055</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H22" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I22" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="J22" t="n">
-        <v>34.26540371045429</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="K22" t="n">
-        <v>42.07125390872748</v>
+        <v>42.07125390872751</v>
       </c>
       <c r="L22" t="n">
-        <v>105.1473006107385</v>
+        <v>105.1473006107386</v>
       </c>
       <c r="M22" t="n">
         <v>180.2480375930232</v>
       </c>
       <c r="N22" t="n">
-        <v>261.5791831678328</v>
+        <v>261.5791831678329</v>
       </c>
       <c r="O22" t="n">
-        <v>314.7040135792698</v>
+        <v>314.7040135792699</v>
       </c>
       <c r="P22" t="n">
-        <v>334.0166340210666</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Q22" t="n">
-        <v>334.0166340210666</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="R22" t="n">
-        <v>334.0166340210666</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="S22" t="n">
-        <v>334.0166340210666</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="T22" t="n">
-        <v>334.0166340210666</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="U22" t="n">
-        <v>334.0166340210666</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="V22" t="n">
-        <v>334.0166340210666</v>
+        <v>260.0536878203072</v>
       </c>
       <c r="W22" t="n">
-        <v>40.77349554699055</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="X22" t="n">
-        <v>40.77349554699055</v>
+        <v>253.6000227146648</v>
       </c>
       <c r="Y22" t="n">
-        <v>40.77349554699055</v>
+        <v>34.26540371045431</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>689.6378360945225</v>
+        <v>939.9839017999391</v>
       </c>
       <c r="C23" t="n">
-        <v>562.9152565605503</v>
+        <v>939.9839017999391</v>
       </c>
       <c r="D23" t="n">
-        <v>221.7312569219369</v>
+        <v>939.9839017999391</v>
       </c>
       <c r="E23" t="n">
-        <v>221.7312569219369</v>
+        <v>939.9839017999391</v>
       </c>
       <c r="F23" t="n">
-        <v>221.7312569219369</v>
+        <v>532.7119324665921</v>
       </c>
       <c r="G23" t="n">
-        <v>221.7312569219369</v>
+        <v>111.0950742113491</v>
       </c>
       <c r="H23" t="n">
-        <v>221.7312569219369</v>
+        <v>111.0950742113491</v>
       </c>
       <c r="I23" t="n">
         <v>34.2654037104543</v>
@@ -5995,19 +5995,19 @@
         <v>253.400964512489</v>
       </c>
       <c r="L23" t="n">
-        <v>524.6989948305063</v>
+        <v>524.6989948305059</v>
       </c>
       <c r="M23" t="n">
-        <v>855.4462867779243</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N23" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O23" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P23" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q23" t="n">
         <v>1713.270185522715</v>
@@ -6016,25 +6016,25 @@
         <v>1607.629543432272</v>
       </c>
       <c r="S23" t="n">
-        <v>1607.629543432272</v>
+        <v>1410.901923140829</v>
       </c>
       <c r="T23" t="n">
-        <v>1607.629543432272</v>
+        <v>1192.545056173124</v>
       </c>
       <c r="U23" t="n">
-        <v>1355.068389059087</v>
+        <v>939.9839017999391</v>
       </c>
       <c r="V23" t="n">
-        <v>1030.947395514489</v>
+        <v>939.9839017999391</v>
       </c>
       <c r="W23" t="n">
-        <v>689.6378360945225</v>
+        <v>939.9839017999391</v>
       </c>
       <c r="X23" t="n">
-        <v>689.6378360945225</v>
+        <v>939.9839017999391</v>
       </c>
       <c r="Y23" t="n">
-        <v>689.6378360945225</v>
+        <v>939.9839017999391</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4213552892376</v>
+        <v>302.0590751799054</v>
       </c>
       <c r="C24" t="n">
-        <v>798.0090810222013</v>
+        <v>302.0590751799054</v>
       </c>
       <c r="D24" t="n">
-        <v>637.228964783233</v>
+        <v>302.0590751799054</v>
       </c>
       <c r="E24" t="n">
-        <v>463.6657609046475</v>
+        <v>276.3928135771883</v>
       </c>
       <c r="F24" t="n">
-        <v>303.2380446218916</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="G24" t="n">
-        <v>153.7678596636252</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="H24" t="n">
-        <v>34.2654037104543</v>
+        <v>115.9650972944325</v>
       </c>
       <c r="I24" t="n">
         <v>34.2654037104543</v>
@@ -6071,22 +6071,22 @@
         <v>34.2654037104543</v>
       </c>
       <c r="K24" t="n">
-        <v>195.1830012904965</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="L24" t="n">
-        <v>477.843112036434</v>
+        <v>316.9255144563918</v>
       </c>
       <c r="M24" t="n">
-        <v>852.4487932782868</v>
+        <v>678.0453684563939</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.380766676013</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O24" t="n">
-        <v>1484.24530923774</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P24" t="n">
-        <v>1713.270185522715</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q24" t="n">
         <v>1713.270185522715</v>
@@ -6107,13 +6107,13 @@
         <v>1016.60633189759</v>
       </c>
       <c r="W24" t="n">
-        <v>987.4213552892376</v>
+        <v>747.2077626278814</v>
       </c>
       <c r="X24" t="n">
-        <v>987.4213552892376</v>
+        <v>527.6997682445777</v>
       </c>
       <c r="Y24" t="n">
-        <v>987.4213552892376</v>
+        <v>302.0590751799054</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.2654037104543</v>
+        <v>114.6820150168562</v>
       </c>
       <c r="C25" t="n">
-        <v>34.2654037104543</v>
+        <v>114.6820150168562</v>
       </c>
       <c r="D25" t="n">
-        <v>34.2654037104543</v>
+        <v>114.6820150168562</v>
       </c>
       <c r="E25" t="n">
-        <v>34.2654037104543</v>
+        <v>114.6820150168562</v>
       </c>
       <c r="F25" t="n">
         <v>34.2654037104543</v>
@@ -6171,28 +6171,28 @@
         <v>334.0166340210667</v>
       </c>
       <c r="R25" t="n">
-        <v>157.8174821267017</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S25" t="n">
-        <v>157.8174821267017</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T25" t="n">
-        <v>157.8174821267017</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U25" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V25" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W25" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="X25" t="n">
-        <v>34.2654037104543</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.2654037104543</v>
+        <v>114.6820150168562</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1098.895890890336</v>
+        <v>1104.423554301406</v>
       </c>
       <c r="C26" t="n">
-        <v>745.1529642426804</v>
+        <v>750.6806276537507</v>
       </c>
       <c r="D26" t="n">
-        <v>745.1529642426804</v>
+        <v>409.4966280151373</v>
       </c>
       <c r="E26" t="n">
-        <v>369.9217399379973</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F26" t="n">
-        <v>369.9217399379973</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G26" t="n">
-        <v>369.9217399379973</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H26" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I26" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J26" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K26" t="n">
-        <v>253.4009645124893</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L26" t="n">
-        <v>524.6989948305063</v>
+        <v>524.6989948305059</v>
       </c>
       <c r="M26" t="n">
-        <v>855.4462867779242</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N26" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O26" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P26" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q26" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R26" t="n">
-        <v>1673.489410553328</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S26" t="n">
-        <v>1476.761790261884</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T26" t="n">
-        <v>1476.761790261884</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U26" t="n">
-        <v>1476.761790261884</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="V26" t="n">
-        <v>1476.761790261884</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="W26" t="n">
-        <v>1476.761790261884</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="X26" t="n">
-        <v>1476.761790261884</v>
+        <v>1482.289453672955</v>
       </c>
       <c r="Y26" t="n">
-        <v>1476.761790261884</v>
+        <v>1482.289453672955</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>492.2088096104002</v>
+        <v>648.5388960639349</v>
       </c>
       <c r="C27" t="n">
-        <v>492.2088096104002</v>
+        <v>648.5388960639349</v>
       </c>
       <c r="D27" t="n">
-        <v>492.2088096104002</v>
+        <v>487.7587798249666</v>
       </c>
       <c r="E27" t="n">
-        <v>492.2088096104002</v>
+        <v>314.1955759463811</v>
       </c>
       <c r="F27" t="n">
-        <v>384.9377382058698</v>
+        <v>153.7678596636252</v>
       </c>
       <c r="G27" t="n">
-        <v>235.4675532476034</v>
+        <v>153.7678596636252</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9650972944325</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I27" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J27" t="n">
-        <v>34.26540371045431</v>
+        <v>46.40090911067247</v>
       </c>
       <c r="K27" t="n">
-        <v>195.1830012904965</v>
+        <v>207.3185066907147</v>
       </c>
       <c r="L27" t="n">
-        <v>477.843112036434</v>
+        <v>489.9786174366522</v>
       </c>
       <c r="M27" t="n">
-        <v>852.4487932782868</v>
+        <v>864.584298678505</v>
       </c>
       <c r="N27" t="n">
-        <v>1080.985636973605</v>
+        <v>1267.524567195716</v>
       </c>
       <c r="O27" t="n">
-        <v>1393.850179535332</v>
+        <v>1580.389109757442</v>
       </c>
       <c r="P27" t="n">
         <v>1622.875055820307</v>
       </c>
       <c r="Q27" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R27" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S27" t="n">
-        <v>1446.329267749321</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T27" t="n">
-        <v>1446.329267749321</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U27" t="n">
-        <v>1206.756066328085</v>
+        <v>1473.696984101479</v>
       </c>
       <c r="V27" t="n">
-        <v>1206.756066328085</v>
+        <v>1230.617266005113</v>
       </c>
       <c r="W27" t="n">
-        <v>937.3574970583762</v>
+        <v>961.2186967354043</v>
       </c>
       <c r="X27" t="n">
-        <v>717.8495026750726</v>
+        <v>961.2186967354043</v>
       </c>
       <c r="Y27" t="n">
-        <v>492.2088096104002</v>
+        <v>735.578003670732</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>334.0166340210667</v>
+        <v>40.7734955469906</v>
       </c>
       <c r="C28" t="n">
-        <v>334.0166340210667</v>
+        <v>40.7734955469906</v>
       </c>
       <c r="D28" t="n">
-        <v>334.0166340210667</v>
+        <v>40.7734955469906</v>
       </c>
       <c r="E28" t="n">
-        <v>334.0166340210667</v>
+        <v>40.7734955469906</v>
       </c>
       <c r="F28" t="n">
-        <v>193.6864499620297</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J28" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K28" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L28" t="n">
         <v>105.1473006107386</v>
@@ -6423,13 +6423,13 @@
         <v>334.0166340210667</v>
       </c>
       <c r="W28" t="n">
-        <v>334.0166340210667</v>
+        <v>40.7734955469906</v>
       </c>
       <c r="X28" t="n">
-        <v>334.0166340210667</v>
+        <v>40.7734955469906</v>
       </c>
       <c r="Y28" t="n">
-        <v>334.0166340210667</v>
+        <v>40.7734955469906</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>902.9031008863403</v>
+        <v>669.9737331866016</v>
       </c>
       <c r="C29" t="n">
-        <v>549.1601742386849</v>
+        <v>669.9737331866016</v>
       </c>
       <c r="D29" t="n">
-        <v>549.1601742386849</v>
+        <v>669.9737331866016</v>
       </c>
       <c r="E29" t="n">
-        <v>549.1601742386849</v>
+        <v>669.9737331866016</v>
       </c>
       <c r="F29" t="n">
-        <v>549.1601742386849</v>
+        <v>669.9737331866016</v>
       </c>
       <c r="G29" t="n">
-        <v>369.9217399379973</v>
+        <v>248.3568749313587</v>
       </c>
       <c r="H29" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I29" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J29" t="n">
         <v>79.03615234277368</v>
       </c>
       <c r="K29" t="n">
-        <v>253.4009645124889</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L29" t="n">
-        <v>524.6989948305061</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M29" t="n">
-        <v>855.4462867779239</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N29" t="n">
         <v>1184.702979677704</v>
@@ -6481,34 +6481,34 @@
         <v>1458.701379414585</v>
       </c>
       <c r="P29" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q29" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R29" t="n">
-        <v>1607.629543432273</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S29" t="n">
-        <v>1607.629543432273</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T29" t="n">
-        <v>1607.629543432273</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="U29" t="n">
-        <v>1607.629543432273</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="V29" t="n">
-        <v>1607.629543432273</v>
+        <v>1389.149191978117</v>
       </c>
       <c r="W29" t="n">
-        <v>1266.319984012306</v>
+        <v>1047.83963255815</v>
       </c>
       <c r="X29" t="n">
-        <v>902.9031008863403</v>
+        <v>1047.83963255815</v>
       </c>
       <c r="Y29" t="n">
-        <v>902.9031008863403</v>
+        <v>1047.83963255815</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>260.7588504711838</v>
+        <v>336.9743534474857</v>
       </c>
       <c r="C30" t="n">
-        <v>260.7588504711838</v>
+        <v>336.9743534474857</v>
       </c>
       <c r="D30" t="n">
-        <v>99.97873423221554</v>
+        <v>176.1942372085175</v>
       </c>
       <c r="E30" t="n">
-        <v>99.97873423221554</v>
+        <v>176.1942372085175</v>
       </c>
       <c r="F30" t="n">
-        <v>99.97873423221554</v>
+        <v>176.1942372085175</v>
       </c>
       <c r="G30" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H30" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I30" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J30" t="n">
-        <v>34.26540371045431</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K30" t="n">
-        <v>37.44025256553299</v>
+        <v>111.1747061710121</v>
       </c>
       <c r="L30" t="n">
-        <v>320.1003633114705</v>
+        <v>393.8348169169496</v>
       </c>
       <c r="M30" t="n">
-        <v>694.7060445533233</v>
+        <v>768.4404981588024</v>
       </c>
       <c r="N30" t="n">
-        <v>1097.646313070534</v>
+        <v>1171.380766676013</v>
       </c>
       <c r="O30" t="n">
-        <v>1410.51085563226</v>
+        <v>1484.24530923774</v>
       </c>
       <c r="P30" t="n">
-        <v>1639.535731917236</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="Q30" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R30" t="n">
-        <v>1625.424923589264</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S30" t="n">
-        <v>1446.329267749321</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="T30" t="n">
-        <v>1232.318333641798</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="U30" t="n">
-        <v>992.745132220562</v>
+        <v>1294.601328261536</v>
       </c>
       <c r="V30" t="n">
-        <v>749.6654141241961</v>
+        <v>1051.52161016517</v>
       </c>
       <c r="W30" t="n">
-        <v>480.2668448544874</v>
+        <v>782.1230408954617</v>
       </c>
       <c r="X30" t="n">
-        <v>260.7588504711838</v>
+        <v>562.6150465121581</v>
       </c>
       <c r="Y30" t="n">
-        <v>260.7588504711838</v>
+        <v>336.9743534474857</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="C31" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="D31" t="n">
-        <v>260.0536878203072</v>
+        <v>317.7028011151732</v>
       </c>
       <c r="E31" t="n">
-        <v>260.0536878203072</v>
+        <v>174.5955877694913</v>
       </c>
       <c r="F31" t="n">
-        <v>204.0189081654108</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J31" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K31" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L31" t="n">
         <v>105.1473006107386</v>
@@ -6642,31 +6642,31 @@
         <v>334.0166340210667</v>
       </c>
       <c r="Q31" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R31" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S31" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T31" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U31" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V31" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="W31" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="X31" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>409.4966280151373</v>
+        <v>809.6251886133527</v>
       </c>
       <c r="C32" t="n">
-        <v>409.4966280151373</v>
+        <v>455.8822619656973</v>
       </c>
       <c r="D32" t="n">
-        <v>409.4966280151373</v>
+        <v>455.8822619656973</v>
       </c>
       <c r="E32" t="n">
-        <v>34.26540371045431</v>
+        <v>455.8822619656973</v>
       </c>
       <c r="F32" t="n">
-        <v>34.26540371045431</v>
+        <v>455.8822619656973</v>
       </c>
       <c r="G32" t="n">
         <v>34.26540371045431</v>
@@ -6703,19 +6703,19 @@
         <v>79.03615234277413</v>
       </c>
       <c r="K32" t="n">
-        <v>253.4009645124893</v>
+        <v>253.4009645124897</v>
       </c>
       <c r="L32" t="n">
-        <v>524.6989948305063</v>
+        <v>524.6989948305068</v>
       </c>
       <c r="M32" t="n">
-        <v>855.4462867779242</v>
+        <v>855.4462867779245</v>
       </c>
       <c r="N32" t="n">
         <v>1184.702979677705</v>
       </c>
       <c r="O32" t="n">
-        <v>1458.701379414585</v>
+        <v>1458.701379414586</v>
       </c>
       <c r="P32" t="n">
         <v>1648.405101797589</v>
@@ -6733,19 +6733,19 @@
         <v>1713.270185522716</v>
       </c>
       <c r="U32" t="n">
-        <v>1460.709031149531</v>
+        <v>1713.270185522716</v>
       </c>
       <c r="V32" t="n">
-        <v>1136.588037604933</v>
+        <v>1389.149191978117</v>
       </c>
       <c r="W32" t="n">
-        <v>795.2784781849662</v>
+        <v>1173.042071739319</v>
       </c>
       <c r="X32" t="n">
-        <v>431.8615950590004</v>
+        <v>809.6251886133527</v>
       </c>
       <c r="Y32" t="n">
-        <v>409.4966280151373</v>
+        <v>809.6251886133527</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>908.3409326342476</v>
+        <v>260.7588504711838</v>
       </c>
       <c r="C33" t="n">
-        <v>718.9286583672113</v>
+        <v>260.7588504711838</v>
       </c>
       <c r="D33" t="n">
-        <v>718.9286583672113</v>
+        <v>260.7588504711838</v>
       </c>
       <c r="E33" t="n">
-        <v>545.3654544886257</v>
+        <v>87.19564659259825</v>
       </c>
       <c r="F33" t="n">
-        <v>384.9377382058698</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="G33" t="n">
-        <v>235.4675532476034</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9650972944325</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="I33" t="n">
         <v>34.26540371045431</v>
       </c>
       <c r="J33" t="n">
-        <v>34.26540371045431</v>
+        <v>54.25343639154485</v>
       </c>
       <c r="K33" t="n">
-        <v>195.1830012904965</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L33" t="n">
-        <v>477.843112036434</v>
+        <v>497.8311447175246</v>
       </c>
       <c r="M33" t="n">
-        <v>852.4487932782868</v>
+        <v>678.0453684563944</v>
       </c>
       <c r="N33" t="n">
-        <v>1255.389061795498</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O33" t="n">
-        <v>1568.253604357224</v>
+        <v>1393.850179535332</v>
       </c>
       <c r="P33" t="n">
         <v>1622.875055820307</v>
@@ -6815,16 +6815,16 @@
         <v>992.745132220562</v>
       </c>
       <c r="V33" t="n">
-        <v>908.3409326342476</v>
+        <v>749.6654141241961</v>
       </c>
       <c r="W33" t="n">
-        <v>908.3409326342476</v>
+        <v>480.2668448544874</v>
       </c>
       <c r="X33" t="n">
-        <v>908.3409326342476</v>
+        <v>260.7588504711838</v>
       </c>
       <c r="Y33" t="n">
-        <v>908.3409326342476</v>
+        <v>260.7588504711838</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>202.4039703488102</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="C34" t="n">
         <v>34.26540371045431</v>
@@ -6891,19 +6891,19 @@
         <v>334.0166340210667</v>
       </c>
       <c r="U34" t="n">
-        <v>334.0166340210667</v>
+        <v>42.4798807295906</v>
       </c>
       <c r="V34" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="W34" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="X34" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
       <c r="Y34" t="n">
-        <v>334.0166340210667</v>
+        <v>34.26540371045431</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>380.1939909258179</v>
+        <v>912.038660467153</v>
       </c>
       <c r="C35" t="n">
-        <v>380.1939909258179</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="D35" t="n">
-        <v>39.00999128720446</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="E35" t="n">
-        <v>39.00999128720446</v>
+        <v>863.1542312990442</v>
       </c>
       <c r="F35" t="n">
-        <v>34.26540371045431</v>
+        <v>455.8822619656972</v>
       </c>
       <c r="G35" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H35" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I35" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J35" t="n">
-        <v>79.03615234277368</v>
+        <v>79.03615234277376</v>
       </c>
       <c r="K35" t="n">
         <v>253.400964512489</v>
       </c>
       <c r="L35" t="n">
-        <v>524.698994830506</v>
+        <v>524.6989948305059</v>
       </c>
       <c r="M35" t="n">
         <v>855.4462867779238</v>
@@ -6955,13 +6955,13 @@
         <v>1458.701379414585</v>
       </c>
       <c r="P35" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q35" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R35" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S35" t="n">
         <v>1516.542565231272</v>
@@ -6970,19 +6970,19 @@
         <v>1298.185698263567</v>
       </c>
       <c r="U35" t="n">
-        <v>1045.624543890382</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="V35" t="n">
-        <v>721.5035503457844</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="W35" t="n">
-        <v>380.1939909258179</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="X35" t="n">
-        <v>380.1939909258179</v>
+        <v>1298.185698263567</v>
       </c>
       <c r="Y35" t="n">
-        <v>380.1939909258179</v>
+        <v>912.038660467153</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>591.1947682351936</v>
+        <v>1069.121048873216</v>
       </c>
       <c r="C36" t="n">
-        <v>401.7824939681573</v>
+        <v>879.7087746061794</v>
       </c>
       <c r="D36" t="n">
-        <v>241.002377729189</v>
+        <v>718.9286583672111</v>
       </c>
       <c r="E36" t="n">
-        <v>241.002377729189</v>
+        <v>545.3654544886256</v>
       </c>
       <c r="F36" t="n">
-        <v>241.002377729189</v>
+        <v>384.9377382058697</v>
       </c>
       <c r="G36" t="n">
-        <v>235.4675532476034</v>
+        <v>235.4675532476033</v>
       </c>
       <c r="H36" t="n">
         <v>115.9650972944325</v>
       </c>
       <c r="I36" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J36" t="n">
-        <v>54.25343639154485</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K36" t="n">
         <v>215.1710339715871</v>
@@ -7031,37 +7031,37 @@
         <v>1080.985636973605</v>
       </c>
       <c r="O36" t="n">
-        <v>1393.850179535332</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P36" t="n">
         <v>1622.875055820307</v>
       </c>
       <c r="Q36" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R36" t="n">
-        <v>1625.424923589264</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="S36" t="n">
-        <v>1446.329267749321</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="T36" t="n">
-        <v>1232.318333641798</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="U36" t="n">
-        <v>1232.318333641798</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="V36" t="n">
-        <v>989.2386155454324</v>
+        <v>1625.424923589263</v>
       </c>
       <c r="W36" t="n">
-        <v>989.2386155454324</v>
+        <v>1356.026354319555</v>
       </c>
       <c r="X36" t="n">
-        <v>769.7306211621287</v>
+        <v>1247.656901800151</v>
       </c>
       <c r="Y36" t="n">
-        <v>769.7306211621287</v>
+        <v>1247.656901800151</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>260.0536878203072</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="C37" t="n">
-        <v>260.0536878203072</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="D37" t="n">
-        <v>260.0536878203072</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="E37" t="n">
-        <v>260.0536878203072</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F37" t="n">
-        <v>260.0536878203072</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G37" t="n">
-        <v>90.30018336535073</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H37" t="n">
-        <v>90.30018336535073</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I37" t="n">
-        <v>90.30018336535073</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J37" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K37" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L37" t="n">
         <v>105.1473006107386</v>
@@ -7116,31 +7116,31 @@
         <v>334.0166340210667</v>
       </c>
       <c r="Q37" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="R37" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="S37" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="T37" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="U37" t="n">
-        <v>260.0536878203072</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V37" t="n">
-        <v>260.0536878203072</v>
+        <v>327.5085421845304</v>
       </c>
       <c r="W37" t="n">
-        <v>260.0536878203072</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="X37" t="n">
-        <v>260.0536878203072</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="Y37" t="n">
-        <v>260.0536878203072</v>
+        <v>34.2654037104543</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>388.0083303581097</v>
+        <v>1145.281524840896</v>
       </c>
       <c r="C38" t="n">
-        <v>34.26540371045431</v>
+        <v>791.5385981932402</v>
       </c>
       <c r="D38" t="n">
-        <v>34.26540371045431</v>
+        <v>791.5385981932402</v>
       </c>
       <c r="E38" t="n">
-        <v>34.26540371045431</v>
+        <v>791.5385981932402</v>
       </c>
       <c r="F38" t="n">
-        <v>34.26540371045431</v>
+        <v>791.5385981932402</v>
       </c>
       <c r="G38" t="n">
-        <v>34.26540371045431</v>
+        <v>369.9217399379972</v>
       </c>
       <c r="H38" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I38" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J38" t="n">
-        <v>79.03615234277413</v>
+        <v>79.03615234277368</v>
       </c>
       <c r="K38" t="n">
-        <v>253.4009645124893</v>
+        <v>253.4009645124889</v>
       </c>
       <c r="L38" t="n">
-        <v>524.6989948305063</v>
+        <v>524.6989948305061</v>
       </c>
       <c r="M38" t="n">
-        <v>855.4462867779242</v>
+        <v>855.4462867779239</v>
       </c>
       <c r="N38" t="n">
-        <v>1184.702979677705</v>
+        <v>1184.702979677704</v>
       </c>
       <c r="O38" t="n">
         <v>1458.701379414585</v>
       </c>
       <c r="P38" t="n">
-        <v>1648.405101797589</v>
+        <v>1648.405101797588</v>
       </c>
       <c r="Q38" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R38" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S38" t="n">
-        <v>1524.356904663564</v>
+        <v>1687.759385353199</v>
       </c>
       <c r="T38" t="n">
-        <v>1306.000037695859</v>
+        <v>1469.402518385494</v>
       </c>
       <c r="U38" t="n">
-        <v>1053.438883322674</v>
+        <v>1469.402518385494</v>
       </c>
       <c r="V38" t="n">
-        <v>729.3178897780763</v>
+        <v>1145.281524840896</v>
       </c>
       <c r="W38" t="n">
-        <v>388.0083303581097</v>
+        <v>1145.281524840896</v>
       </c>
       <c r="X38" t="n">
-        <v>388.0083303581097</v>
+        <v>1145.281524840896</v>
       </c>
       <c r="Y38" t="n">
-        <v>388.0083303581097</v>
+        <v>1145.281524840896</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>223.6776779774906</v>
+        <v>527.6997682445777</v>
       </c>
       <c r="C39" t="n">
-        <v>34.26540371045431</v>
+        <v>338.2874939775414</v>
       </c>
       <c r="D39" t="n">
-        <v>34.26540371045431</v>
+        <v>194.6931199932102</v>
       </c>
       <c r="E39" t="n">
-        <v>34.26540371045431</v>
+        <v>194.6931199932102</v>
       </c>
       <c r="F39" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G39" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H39" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="I39" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J39" t="n">
-        <v>34.26540371045431</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K39" t="n">
-        <v>195.1830012904965</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L39" t="n">
-        <v>477.843112036434</v>
+        <v>497.8311447175246</v>
       </c>
       <c r="M39" t="n">
-        <v>852.4487932782868</v>
+        <v>872.4368259593773</v>
       </c>
       <c r="N39" t="n">
-        <v>1255.389061795498</v>
+        <v>1275.377094476588</v>
       </c>
       <c r="O39" t="n">
-        <v>1568.253604357224</v>
+        <v>1580.389109757442</v>
       </c>
       <c r="P39" t="n">
-        <v>1713.270185522716</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q39" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="R39" t="n">
-        <v>1713.270185522716</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S39" t="n">
-        <v>1534.174529682773</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T39" t="n">
-        <v>1320.16359557525</v>
+        <v>1499.259251415192</v>
       </c>
       <c r="U39" t="n">
-        <v>1181.304652791541</v>
+        <v>1259.686049993956</v>
       </c>
       <c r="V39" t="n">
-        <v>938.2249346951752</v>
+        <v>1016.60633189759</v>
       </c>
       <c r="W39" t="n">
-        <v>668.8263654254665</v>
+        <v>747.2077626278814</v>
       </c>
       <c r="X39" t="n">
-        <v>449.3183710421629</v>
+        <v>527.6997682445777</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.6776779774906</v>
+        <v>527.6997682445777</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.26540371045431</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="C40" t="n">
-        <v>34.26540371045431</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="D40" t="n">
-        <v>34.26540371045431</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="E40" t="n">
-        <v>34.26540371045431</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="F40" t="n">
-        <v>34.26540371045431</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="G40" t="n">
-        <v>34.26540371045431</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="H40" t="n">
-        <v>34.26540371045431</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="I40" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="J40" t="n">
-        <v>34.26540371045431</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="K40" t="n">
-        <v>42.07125390872751</v>
+        <v>42.0712539087275</v>
       </c>
       <c r="L40" t="n">
         <v>105.1473006107386</v>
@@ -7356,28 +7356,28 @@
         <v>334.0166340210667</v>
       </c>
       <c r="R40" t="n">
-        <v>334.0166340210667</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="S40" t="n">
-        <v>107.5511362737878</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="T40" t="n">
-        <v>34.26540371045431</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="U40" t="n">
-        <v>34.26540371045431</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="V40" t="n">
-        <v>34.26540371045431</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="W40" t="n">
-        <v>34.26540371045431</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="X40" t="n">
-        <v>34.26540371045431</v>
+        <v>181.1966235275519</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.26540371045431</v>
+        <v>181.1966235275519</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>369.9217399379972</v>
+        <v>750.6806276537507</v>
       </c>
       <c r="C41" t="n">
-        <v>369.9217399379972</v>
+        <v>750.6806276537507</v>
       </c>
       <c r="D41" t="n">
-        <v>369.9217399379972</v>
+        <v>409.4966280151373</v>
       </c>
       <c r="E41" t="n">
-        <v>369.9217399379972</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="F41" t="n">
-        <v>369.9217399379972</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="G41" t="n">
-        <v>369.9217399379972</v>
+        <v>34.2654037104543</v>
       </c>
       <c r="H41" t="n">
         <v>34.2654037104543</v>
@@ -7414,13 +7414,13 @@
         <v>79.03615234277368</v>
       </c>
       <c r="K41" t="n">
-        <v>253.4009645124889</v>
+        <v>253.400964512489</v>
       </c>
       <c r="L41" t="n">
-        <v>524.6989948305061</v>
+        <v>524.698994830506</v>
       </c>
       <c r="M41" t="n">
-        <v>855.4462867779239</v>
+        <v>855.4462867779238</v>
       </c>
       <c r="N41" t="n">
         <v>1184.702979677704</v>
@@ -7435,28 +7435,28 @@
         <v>1713.270185522715</v>
       </c>
       <c r="R41" t="n">
-        <v>1607.629543432272</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S41" t="n">
-        <v>1410.901923140829</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T41" t="n">
-        <v>1410.901923140829</v>
+        <v>1705.228674943083</v>
       </c>
       <c r="U41" t="n">
-        <v>1410.901923140829</v>
+        <v>1452.667520569898</v>
       </c>
       <c r="V41" t="n">
-        <v>1410.901923140829</v>
+        <v>1128.546527025299</v>
       </c>
       <c r="W41" t="n">
-        <v>1069.592363720863</v>
+        <v>1128.546527025299</v>
       </c>
       <c r="X41" t="n">
-        <v>706.1754805948967</v>
+        <v>1128.546527025299</v>
       </c>
       <c r="Y41" t="n">
-        <v>369.9217399379972</v>
+        <v>1128.546527025299</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>798.0090810222013</v>
+        <v>336.9743534474857</v>
       </c>
       <c r="C42" t="n">
-        <v>798.0090810222013</v>
+        <v>336.9743534474857</v>
       </c>
       <c r="D42" t="n">
-        <v>637.228964783233</v>
+        <v>336.9743534474857</v>
       </c>
       <c r="E42" t="n">
-        <v>463.6657609046475</v>
+        <v>336.9743534474857</v>
       </c>
       <c r="F42" t="n">
-        <v>303.2380446218916</v>
+        <v>336.9743534474857</v>
       </c>
       <c r="G42" t="n">
-        <v>153.7678596636252</v>
+        <v>187.5041684892194</v>
       </c>
       <c r="H42" t="n">
-        <v>34.2654037104543</v>
+        <v>68.00171253604846</v>
       </c>
       <c r="I42" t="n">
         <v>34.2654037104543</v>
       </c>
       <c r="J42" t="n">
-        <v>34.2654037104543</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K42" t="n">
-        <v>195.1830012904965</v>
+        <v>215.1710339715871</v>
       </c>
       <c r="L42" t="n">
-        <v>477.843112036434</v>
+        <v>303.4396872145412</v>
       </c>
       <c r="M42" t="n">
-        <v>768.4404981588024</v>
+        <v>678.0453684563939</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.380766676013</v>
+        <v>1080.985636973605</v>
       </c>
       <c r="O42" t="n">
-        <v>1484.24530923774</v>
+        <v>1393.850179535331</v>
       </c>
       <c r="P42" t="n">
-        <v>1713.270185522715</v>
+        <v>1622.875055820307</v>
       </c>
       <c r="Q42" t="n">
         <v>1713.270185522715</v>
       </c>
       <c r="R42" t="n">
-        <v>1708.531215698515</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S42" t="n">
-        <v>1708.531215698515</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="T42" t="n">
-        <v>1708.531215698515</v>
+        <v>1534.174529682773</v>
       </c>
       <c r="U42" t="n">
-        <v>1708.531215698515</v>
+        <v>1294.601328261536</v>
       </c>
       <c r="V42" t="n">
-        <v>1465.451497602149</v>
+        <v>1051.52161016517</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.05292833244</v>
+        <v>782.1230408954617</v>
       </c>
       <c r="X42" t="n">
-        <v>976.5449339491363</v>
+        <v>562.6150465121581</v>
       </c>
       <c r="Y42" t="n">
-        <v>976.5449339491363</v>
+        <v>336.9743534474857</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.2654037104543</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="C43" t="n">
-        <v>34.2654037104543</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="D43" t="n">
-        <v>34.2654037104543</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="E43" t="n">
-        <v>34.2654037104543</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="F43" t="n">
         <v>34.2654037104543</v>
@@ -7599,22 +7599,22 @@
         <v>334.0166340210667</v>
       </c>
       <c r="T43" t="n">
-        <v>334.0166340210667</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="U43" t="n">
-        <v>42.4798807295906</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="V43" t="n">
-        <v>42.4798807295906</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="W43" t="n">
-        <v>42.4798807295906</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="X43" t="n">
-        <v>34.2654037104543</v>
+        <v>110.7777649975118</v>
       </c>
       <c r="Y43" t="n">
-        <v>34.2654037104543</v>
+        <v>110.7777649975118</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1238.385455603727</v>
+        <v>557.3875931494798</v>
       </c>
       <c r="C44" t="n">
-        <v>1238.385455603727</v>
+        <v>557.3875931494798</v>
       </c>
       <c r="D44" t="n">
-        <v>1238.385455603727</v>
+        <v>557.3875931494798</v>
       </c>
       <c r="E44" t="n">
-        <v>863.1542312990442</v>
+        <v>557.3875931494798</v>
       </c>
       <c r="F44" t="n">
-        <v>455.8822619656972</v>
+        <v>557.3875931494798</v>
       </c>
       <c r="G44" t="n">
-        <v>34.2654037104543</v>
+        <v>557.3875931494798</v>
       </c>
       <c r="H44" t="n">
-        <v>34.2654037104543</v>
+        <v>221.7312569219369</v>
       </c>
       <c r="I44" t="n">
         <v>34.2654037104543</v>
@@ -7672,28 +7672,28 @@
         <v>1713.270185522715</v>
       </c>
       <c r="R44" t="n">
-        <v>1624.532493400141</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="S44" t="n">
-        <v>1624.532493400141</v>
+        <v>1713.270185522715</v>
       </c>
       <c r="T44" t="n">
-        <v>1624.532493400141</v>
+        <v>1494.91331855501</v>
       </c>
       <c r="U44" t="n">
-        <v>1624.532493400141</v>
+        <v>1242.352164181825</v>
       </c>
       <c r="V44" t="n">
-        <v>1624.532493400141</v>
+        <v>918.2311706372271</v>
       </c>
       <c r="W44" t="n">
-        <v>1624.532493400141</v>
+        <v>576.9216112172605</v>
       </c>
       <c r="X44" t="n">
-        <v>1624.532493400141</v>
+        <v>576.9216112172605</v>
       </c>
       <c r="Y44" t="n">
-        <v>1238.385455603727</v>
+        <v>557.3875931494798</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4213552892376</v>
+        <v>302.0590751799054</v>
       </c>
       <c r="C45" t="n">
-        <v>798.0090810222013</v>
+        <v>302.0590751799054</v>
       </c>
       <c r="D45" t="n">
-        <v>637.228964783233</v>
+        <v>302.0590751799054</v>
       </c>
       <c r="E45" t="n">
-        <v>463.6657609046475</v>
+        <v>302.0590751799054</v>
       </c>
       <c r="F45" t="n">
-        <v>303.2380446218916</v>
+        <v>302.0590751799054</v>
       </c>
       <c r="G45" t="n">
-        <v>153.7678596636252</v>
+        <v>152.588890221639</v>
       </c>
       <c r="H45" t="n">
         <v>34.2654037104543</v>
@@ -7727,25 +7727,25 @@
         <v>34.2654037104543</v>
       </c>
       <c r="J45" t="n">
-        <v>34.2654037104543</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="K45" t="n">
-        <v>111.1747061710121</v>
+        <v>54.25343639154484</v>
       </c>
       <c r="L45" t="n">
-        <v>393.8348169169496</v>
+        <v>336.9135471374823</v>
       </c>
       <c r="M45" t="n">
-        <v>768.4404981588024</v>
+        <v>711.5192283793351</v>
       </c>
       <c r="N45" t="n">
-        <v>1171.380766676013</v>
+        <v>1114.459496896546</v>
       </c>
       <c r="O45" t="n">
-        <v>1484.24530923774</v>
+        <v>1427.324039458272</v>
       </c>
       <c r="P45" t="n">
-        <v>1713.270185522715</v>
+        <v>1656.348915743248</v>
       </c>
       <c r="Q45" t="n">
         <v>1713.270185522715</v>
@@ -7760,19 +7760,19 @@
         <v>1499.259251415192</v>
       </c>
       <c r="U45" t="n">
-        <v>1435.355777485881</v>
+        <v>1259.686049993956</v>
       </c>
       <c r="V45" t="n">
-        <v>1435.355777485881</v>
+        <v>1016.60633189759</v>
       </c>
       <c r="W45" t="n">
-        <v>1165.957208216173</v>
+        <v>747.2077626278814</v>
       </c>
       <c r="X45" t="n">
-        <v>1165.957208216173</v>
+        <v>527.6997682445777</v>
       </c>
       <c r="Y45" t="n">
-        <v>1165.957208216173</v>
+        <v>302.0590751799054</v>
       </c>
     </row>
     <row r="46">
@@ -7839,7 +7839,7 @@
         <v>334.0166340210667</v>
       </c>
       <c r="U46" t="n">
-        <v>327.5085421845304</v>
+        <v>334.0166340210667</v>
       </c>
       <c r="V46" t="n">
         <v>327.5085421845304</v>
@@ -8066,7 +8066,7 @@
         <v>172.5532127625713</v>
       </c>
       <c r="M3" t="n">
-        <v>173.4035213848624</v>
+        <v>176.9203908159872</v>
       </c>
       <c r="N3" t="n">
         <v>160.4047444027676</v>
@@ -8075,7 +8075,7 @@
         <v>177.484287653347</v>
       </c>
       <c r="P3" t="n">
-        <v>166.9656464766077</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q3" t="n">
         <v>136.1300824528302</v>
@@ -8297,13 +8297,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>171.373473584151</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L6" t="n">
         <v>169.0363433314465</v>
       </c>
       <c r="M6" t="n">
-        <v>173.5713770459633</v>
+        <v>176.7782950813963</v>
       </c>
       <c r="N6" t="n">
         <v>163.7537581727915</v>
@@ -8537,16 +8537,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>169.2041989925474</v>
       </c>
       <c r="M9" t="n">
-        <v>173.5713770459633</v>
+        <v>176.9203908159872</v>
       </c>
       <c r="N9" t="n">
         <v>163.7537581727915</v>
       </c>
       <c r="O9" t="n">
-        <v>177.484287653347</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
         <v>166.9656464766077</v>
@@ -8783,7 +8783,7 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O12" t="n">
-        <v>79.05770731365175</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9011,10 +9011,10 @@
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>240.3045437566416</v>
+        <v>64.13946817897197</v>
       </c>
       <c r="M15" t="n">
-        <v>105.4218737312288</v>
+        <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
         <v>310.6138585746227</v>
@@ -9245,7 +9245,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>8.830445725522452</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9257,7 +9257,7 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O18" t="n">
-        <v>255.2227828913207</v>
+        <v>79.05770731365132</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>61.51705889948337</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>8.830445725522452</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9497,7 +9497,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>206.3638740786793</v>
+        <v>172.5518943585371</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9716,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>61.51705889948337</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,7 +9953,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>61.51705889948337</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
         <v>171.373473584151</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.51705889948337</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>171.373473584151</v>
+        <v>66.32667782599441</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>44.82187063221568</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,7 +10427,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>61.51705889948337</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
         <v>171.373473584151</v>
@@ -10901,7 +10901,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>61.51705889948337</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
         <v>171.373473584151</v>
@@ -11138,16 +11138,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>61.51705889948337</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L42" t="n">
-        <v>240.3045437566416</v>
+        <v>43.9495361778704</v>
       </c>
       <c r="M42" t="n">
-        <v>216.9200175529449</v>
+        <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
         <v>310.6138585746227</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.82187063221568</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11378,7 +11378,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>86.51660982709598</v>
+        <v>8.830445725522452</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>102.3181027326875</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -22546,37 +22546,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>370.5703709467085</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>419.2448920946117</v>
+        <v>15.72802266348691</v>
       </c>
       <c r="H2" t="n">
-        <v>351.1867109187684</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>256.6898085504863</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>111.3013968910535</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22585,37 +22585,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.6328276992101</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>220.4301160555486</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>236.785106778059</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>224.246294399988</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.1830790232068</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>317.502885581386</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>148.9622183950918</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>127.8372169228968</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>114.855819447717</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>73.03491363274843</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22670,31 +22670,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>144.7140833671753</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>192.1160050168152</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>212.3311909853626</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>237.2423862021824</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>214.2152558445359</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,76 +22704,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>168.883215127945</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>167.4464568944399</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>170.3394424699794</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>133.1381297789385</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>88.2262143767183</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>80.54391191246145</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>142.493864959141</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>211.6331360021768</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>238.6174795018098</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>224.541075671891</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>288.6665082522452</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,37 +22783,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>419.2448920946117</v>
+        <v>15.72802266348691</v>
       </c>
       <c r="H5" t="n">
-        <v>351.1867109187684</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>256.6898085504863</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>107.9244988632874</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>54.94652149763672</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,37 +22822,37 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>73.5786919263081</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>133.6328276992101</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>220.4301160555486</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>236.785106778059</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>224.246294399988</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.1830790232068</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>148.9622183950918</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>124.320347491772</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>111.3389500165922</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>73.03491363274843</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,31 +22907,31 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>144.7140833671753</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>192.5352158530052</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>215.8480604164874</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>237.2423862021824</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,76 +22941,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>168.883215127945</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>167.4464568944399</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>170.3394424699794</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>133.1381297789385</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>88.2262143767183</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>80.54391191246145</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>142.493864959141</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>211.6331360021768</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>238.6174795018098</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>224.541075671891</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>288.6665082522452</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,37 +23020,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>419.2448920946117</v>
+        <v>15.72802266348691</v>
       </c>
       <c r="H8" t="n">
-        <v>351.1867109187684</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>256.6898085504863</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>111.3013968910535</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23059,37 +23059,37 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>30.44443104507403</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>70.20179389854206</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.6328276992101</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>220.4301160555486</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>236.785106778059</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>224.246294399988</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.1830790232068</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>127.8372169228968</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>114.855819447717</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>73.03491363274843</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,31 +23144,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>212.7504018215527</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>233.7255167710576</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>237.1320514842774</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>263.1877141458868</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,76 +23178,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>168.883215127945</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>167.4464568944399</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>170.3394424699794</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>133.1381297789385</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>88.2262143767183</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>59.27569846418345</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>53.81519614675737</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>44.43848373237326</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>63.26597710615634</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>80.54391191246145</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>142.493864959141</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>211.6331360021768</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>238.6174795018098</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>224.541075671891</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6665082522452</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>188.7297651414276</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2997728652675</v>
+        <v>90.40849357814989</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>194.7603440885288</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.0355428294531</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>29.68592370957575</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.9668093141174</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>237.1774694070239</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>15.4411283442287</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>129.0319556738761</v>
       </c>
       <c r="G13" t="n">
         <v>168.0559694104069</v>
       </c>
       <c r="H13" t="n">
-        <v>156.6748543231374</v>
+        <v>160.0914904239654</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>145.4619076189266</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R13" t="n">
         <v>174.4371603754213</v>
@@ -23497,19 +23497,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>47.75508492483715</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>374.7566510988233</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.1732982980278</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>175.9062682385696</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -23594,7 +23594,7 @@
         <v>118.3074313936392</v>
       </c>
       <c r="I15" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1774694070239</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>178.7838105562627</v>
       </c>
     </row>
     <row r="16">
@@ -23655,7 +23655,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -23667,7 +23667,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.0559694104069</v>
+        <v>37.75943237487303</v>
       </c>
       <c r="H16" t="n">
         <v>160.0914904239654</v>
@@ -23700,10 +23700,10 @@
         <v>73.22331673875185</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.4371603754213</v>
       </c>
       <c r="S16" t="n">
-        <v>101.8842851377212</v>
+        <v>224.2008427698061</v>
       </c>
       <c r="T16" t="n">
         <v>221.0064803333194</v>
@@ -23737,22 +23737,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>332.2997728652675</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5911946793677</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>67.0747459413523</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>285.4782886479241</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>165.561936617031</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23864,19 +23864,19 @@
         <v>177.3046992815431</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8708247664476</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>114.8541522244739</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>145.1826502507107</v>
@@ -23940,10 +23940,10 @@
         <v>174.4371603754213</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.2008427698061</v>
       </c>
       <c r="T19" t="n">
-        <v>148.4536050956193</v>
+        <v>221.0064803333194</v>
       </c>
       <c r="U19" t="n">
         <v>288.6213857585613</v>
@@ -23955,7 +23955,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
-        <v>221.9194554082425</v>
+        <v>91.62291837270863</v>
       </c>
       <c r="Y19" t="n">
         <v>217.1412728141684</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>290.5316688550528</v>
       </c>
       <c r="G20" t="n">
         <v>417.4006896726905</v>
@@ -24022,10 +24022,10 @@
         <v>194.7603440885288</v>
       </c>
       <c r="T20" t="n">
-        <v>19.58244380403656</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24037,7 +24037,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>175.90626823857</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -24065,7 +24065,7 @@
         <v>147.9754831086837</v>
       </c>
       <c r="H21" t="n">
-        <v>118.3074313936392</v>
+        <v>81.59707062488292</v>
       </c>
       <c r="I21" t="n">
         <v>80.88269664813839</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -24144,7 +24144,7 @@
         <v>168.0559694104069</v>
       </c>
       <c r="H22" t="n">
-        <v>153.6484795057945</v>
+        <v>160.0914904239654</v>
       </c>
       <c r="I22" t="n">
         <v>145.4619076189266</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.22331673875185</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>174.4371603754213</v>
@@ -24189,13 +24189,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.9215786347494</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>224.7501436425464</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>332.2997728652675</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>109.5298208834819</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7603440885288</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
         <v>359.7827142947061</v>
@@ -24287,25 +24287,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>146.4179728531098</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I24" t="n">
-        <v>80.88269664813839</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>237.8114567347426</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24375,7 +24375,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>59.31443702510883</v>
       </c>
       <c r="G25" t="n">
         <v>168.0559694104069</v>
@@ -24411,7 +24411,7 @@
         <v>73.22331673875185</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>174.4371603754213</v>
       </c>
       <c r="S25" t="n">
         <v>224.2008427698061</v>
@@ -24420,7 +24420,7 @@
         <v>221.0064803333194</v>
       </c>
       <c r="U25" t="n">
-        <v>166.3048281264764</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24432,7 +24432,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>417.4006896726905</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I26" t="n">
         <v>185.5911946793677</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.20126844984443</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T26" t="n">
         <v>216.1732982980278</v>
@@ -24508,7 +24508,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>131.1117897634436</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>90.58177786693663</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>52.62507842944319</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T27" t="n">
         <v>211.8708247664476</v>
@@ -24581,13 +24581,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>132.4838713002757</v>
       </c>
       <c r="G28" t="n">
-        <v>10.22913362134736</v>
+        <v>168.0559694104069</v>
       </c>
       <c r="H28" t="n">
         <v>160.0914904239654</v>
@@ -24663,7 +24663,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
@@ -24694,10 +24694,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>239.9546397150097</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>120.3492163565722</v>
       </c>
       <c r="I29" t="n">
         <v>185.5911946793677</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S29" t="n">
         <v>194.7603440885288</v>
@@ -24739,13 +24739,13 @@
         <v>250.0355428294531</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
         <v>382.2855674184499</v>
@@ -24773,7 +24773,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>82.91928589214007</v>
+        <v>7.465937945601183</v>
       </c>
       <c r="H30" t="n">
         <v>118.3074313936392</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24843,16 +24843,16 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>129.0319556738762</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>83.45245036009919</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>168.0559694104069</v>
       </c>
       <c r="H31" t="n">
         <v>160.0914904239654</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R31" t="n">
         <v>174.4371603754213</v>
@@ -24919,19 +24919,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>332.2997728652675</v>
@@ -24973,19 +24973,19 @@
         <v>216.1732982980278</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>123.950414789356</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>360.1442500450255</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -24998,7 +24998,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>106.4224986666058</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.9754831086837</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>118.3074313936392</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.88269664813839</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25055,13 +25055,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>157.0887633249509</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.32038362943419</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
         <v>145.1826502507107</v>
@@ -25131,10 +25131,10 @@
         <v>221.0064803333194</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6213857585613</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>245.1090151844499</v>
+        <v>236.976682935505</v>
       </c>
       <c r="W34" t="n">
         <v>290.3107070893353</v>
@@ -25156,19 +25156,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>301.8099125047511</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>398.5021079390309</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>332.2997728652675</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25241,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>142.4960068719139</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8708247664476</v>
       </c>
       <c r="U36" t="n">
         <v>237.1774694070239</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>110.0271564452607</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -25326,7 +25326,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>168.0559694104069</v>
       </c>
       <c r="H37" t="n">
         <v>160.0914904239654</v>
@@ -25335,7 +25335,7 @@
         <v>145.4619076189266</v>
       </c>
       <c r="J37" t="n">
-        <v>19.17742569065226</v>
+        <v>74.65185754899971</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>73.22331673875185</v>
       </c>
       <c r="R37" t="n">
         <v>174.4371603754213</v>
@@ -25371,10 +25371,10 @@
         <v>288.6213857585613</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>238.6660042662789</v>
       </c>
       <c r="W37" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25405,10 +25405,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.4006896726905</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>185.5911946793677</v>
@@ -25441,19 +25441,19 @@
         <v>104.5842356695385</v>
       </c>
       <c r="S38" t="n">
-        <v>7.73619603796908</v>
+        <v>169.5046519207075</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0355428294531</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
         <v>359.7827142947061</v>
@@ -25475,13 +25475,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>17.01388483209064</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>147.9754831086837</v>
@@ -25520,13 +25520,13 @@
         <v>86.9668093141174</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.3046992815431</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>99.70711605115211</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25569,7 +25569,7 @@
         <v>160.0914904239654</v>
       </c>
       <c r="I40" t="n">
-        <v>145.4619076189266</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>74.65185754899971</v>
@@ -25596,13 +25596,13 @@
         <v>73.22331673875185</v>
       </c>
       <c r="R40" t="n">
-        <v>174.4371603754213</v>
+        <v>23.14534998684172</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>224.2008427698061</v>
       </c>
       <c r="T40" t="n">
-        <v>148.4536050956193</v>
+        <v>221.0064803333194</v>
       </c>
       <c r="U40" t="n">
         <v>288.6213857585613</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>403.1992496400135</v>
@@ -25645,7 +25645,7 @@
         <v>417.4006896726905</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>332.2997728652675</v>
       </c>
       <c r="I41" t="n">
         <v>185.5911946793677</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>194.7603440885288</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1732982980278</v>
+        <v>208.2122028241916</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>49.39436416811941</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.88269664813839</v>
+        <v>47.48375091080018</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.27522918815893</v>
+        <v>86.9668093141174</v>
       </c>
       <c r="S42" t="n">
-        <v>177.3046992815431</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>211.8708247664476</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1774694070239</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>63.17964454425976</v>
       </c>
       <c r="G43" t="n">
         <v>168.0559694104069</v>
@@ -25839,10 +25839,10 @@
         <v>224.2008427698061</v>
       </c>
       <c r="T43" t="n">
-        <v>221.0064803333194</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25851,7 +25851,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
-        <v>213.7871231592976</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -25873,19 +25873,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.4006896726905</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2997728652675</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5911946793677</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>16.73392046819036</v>
+        <v>104.5842356695385</v>
       </c>
       <c r="S44" t="n">
         <v>194.7603440885288</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1732982980278</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0355428294531</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>362.946889531347</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.167179747566323</v>
       </c>
       <c r="I45" t="n">
         <v>80.88269664813839</v>
@@ -26000,19 +26000,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>173.9130302170062</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26079,10 +26079,10 @@
         <v>221.0064803333194</v>
       </c>
       <c r="U46" t="n">
-        <v>282.1783748403903</v>
+        <v>288.6213857585613</v>
       </c>
       <c r="V46" t="n">
-        <v>245.1090151844499</v>
+        <v>238.6660042662789</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>255201.0659407106</v>
+        <v>1058959.917905427</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>255201.0659407107</v>
+        <v>1058959.917905427</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>255201.0659407106</v>
+        <v>1058959.917905427</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>600693.5868686314</v>
+        <v>600693.5868686312</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>600693.5868686313</v>
+        <v>600693.5868686312</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>600693.5868686312</v>
+        <v>600693.5868686314</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>600693.5868686312</v>
+        <v>600693.5868686313</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>600693.5868686312</v>
+        <v>600693.5868686313</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>600693.5868686313</v>
+        <v>600693.5868686312</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>600693.5868686315</v>
+        <v>600693.5868686313</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116967.1552228257</v>
+        <v>485356.6290399873</v>
       </c>
       <c r="C2" t="n">
-        <v>116967.1552228257</v>
+        <v>485356.6290399873</v>
       </c>
       <c r="D2" t="n">
-        <v>116967.1552228257</v>
+        <v>485356.6290399873</v>
       </c>
       <c r="E2" t="n">
-        <v>275317.8939814558</v>
+        <v>275317.8939814555</v>
       </c>
       <c r="F2" t="n">
+        <v>275317.8939814557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>275317.8939814556</v>
+      </c>
+      <c r="H2" t="n">
         <v>275317.8939814555</v>
-      </c>
-      <c r="G2" t="n">
-        <v>275317.8939814555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>275317.8939814554</v>
       </c>
       <c r="I2" t="n">
         <v>275317.8939814556</v>
       </c>
       <c r="J2" t="n">
-        <v>275317.8939814557</v>
+        <v>275317.8939814555</v>
       </c>
       <c r="K2" t="n">
+        <v>275317.8939814555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>275317.8939814555</v>
+      </c>
+      <c r="M2" t="n">
         <v>275317.8939814556</v>
       </c>
-      <c r="L2" t="n">
-        <v>275317.8939814557</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>275317.8939814555</v>
-      </c>
-      <c r="N2" t="n">
-        <v>275317.8939814556</v>
       </c>
       <c r="O2" t="n">
         <v>275317.8939814555</v>
       </c>
       <c r="P2" t="n">
-        <v>275317.8939814558</v>
+        <v>275317.8939814555</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1178.583834366815</v>
+        <v>1178.583834366837</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>920.1677854372477</v>
+        <v>920.1677854372181</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.725482714710772</v>
+        <v>382300.9666476649</v>
       </c>
       <c r="C4" t="n">
-        <v>1.725482714710772</v>
+        <v>382300.9666476649</v>
       </c>
       <c r="D4" t="n">
-        <v>1.725482714710772</v>
+        <v>382300.9666476649</v>
       </c>
       <c r="E4" t="n">
-        <v>321.261534709925</v>
+        <v>321.2615347099249</v>
       </c>
       <c r="F4" t="n">
-        <v>321.261534709925</v>
+        <v>321.2615347099249</v>
       </c>
       <c r="G4" t="n">
         <v>321.261534709925</v>
       </c>
       <c r="H4" t="n">
-        <v>321.2615347099249</v>
+        <v>321.261534709925</v>
       </c>
       <c r="I4" t="n">
         <v>321.261534709925</v>
       </c>
       <c r="J4" t="n">
-        <v>321.261534709925</v>
+        <v>321.2615347099249</v>
       </c>
       <c r="K4" t="n">
         <v>321.261534709925</v>
@@ -26450,16 +26450,16 @@
         <v>321.261534709925</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2615347099251</v>
+        <v>321.2615347099249</v>
       </c>
       <c r="N4" t="n">
-        <v>321.261534709925</v>
+        <v>321.2615347099249</v>
       </c>
       <c r="O4" t="n">
-        <v>321.261534709925</v>
+        <v>321.2615347099249</v>
       </c>
       <c r="P4" t="n">
-        <v>321.261534709925</v>
+        <v>321.2615347099249</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>36042.35550341867</v>
       </c>
       <c r="H5" t="n">
-        <v>36042.35550341866</v>
+        <v>36042.35550341867</v>
       </c>
       <c r="I5" t="n">
         <v>36042.35550341867</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81945.42024433181</v>
+        <v>68004.35413144284</v>
       </c>
       <c r="C6" t="n">
-        <v>83124.00407869865</v>
+        <v>69182.93796580972</v>
       </c>
       <c r="D6" t="n">
-        <v>83124.00407869862</v>
+        <v>69182.93796580972</v>
       </c>
       <c r="E6" t="n">
-        <v>-256439.2519756405</v>
+        <v>-266017.7659706743</v>
       </c>
       <c r="F6" t="n">
-        <v>238954.2769433269</v>
+        <v>229375.7629482934</v>
       </c>
       <c r="G6" t="n">
-        <v>238954.2769433269</v>
+        <v>229375.7629482934</v>
       </c>
       <c r="H6" t="n">
-        <v>238954.2769433268</v>
+        <v>229375.7629482933</v>
       </c>
       <c r="I6" t="n">
-        <v>238954.276943327</v>
+        <v>229375.7629482934</v>
       </c>
       <c r="J6" t="n">
-        <v>238034.1091578898</v>
+        <v>228455.5951628561</v>
       </c>
       <c r="K6" t="n">
-        <v>238954.276943327</v>
+        <v>229375.7629482933</v>
       </c>
       <c r="L6" t="n">
-        <v>238954.276943327</v>
+        <v>229375.7629482933</v>
       </c>
       <c r="M6" t="n">
-        <v>133092.2490447903</v>
+        <v>123513.7350497568</v>
       </c>
       <c r="N6" t="n">
-        <v>238954.276943327</v>
+        <v>229375.7629482933</v>
       </c>
       <c r="O6" t="n">
-        <v>238954.2769433269</v>
+        <v>229375.7629482933</v>
       </c>
       <c r="P6" t="n">
-        <v>238954.2769433272</v>
+        <v>229375.7629482933</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="F4" t="n">
         <v>428.3175463806788</v>
@@ -26807,25 +26807,25 @@
         <v>428.3175463806788</v>
       </c>
       <c r="H4" t="n">
-        <v>428.3175463806787</v>
+        <v>428.3175463806789</v>
       </c>
       <c r="I4" t="n">
         <v>428.3175463806788</v>
       </c>
       <c r="J4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="K4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="L4" t="n">
         <v>428.3175463806789</v>
       </c>
       <c r="M4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="N4" t="n">
-        <v>428.3175463806789</v>
+        <v>428.3175463806788</v>
       </c>
       <c r="O4" t="n">
         <v>428.3175463806788</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>424.800676949554</v>
+        <v>424.8006769495539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.516869431124917</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.8006769495539</v>
+        <v>424.8006769495538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.800676949554</v>
+        <v>424.8006769495539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,37 +27378,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>256.6898085504863</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>111.1237485033009</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>16.99055923469257</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27417,37 +27417,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>236.785106778059</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.1830790232068</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>145.445348963967</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27502,31 +27502,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>31.13081250099125</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>144.7140833671753</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>192.5352158530052</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="4">
@@ -27536,76 +27536,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>168.883215127945</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>167.4464568944399</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>170.3394424699794</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>211.6331360021768</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>238.6174795018098</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>224.541075671891</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>288.6665082522452</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="5">
@@ -27615,37 +27615,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>256.6898085504863</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>16.81291084694001</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -27654,37 +27654,37 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>236.785106778059</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.1830790232068</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="6">
@@ -27694,31 +27694,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>124.739558327962</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>111.3389500165922</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>69.51804420162362</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27739,31 +27739,31 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>31.13081250099125</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="7">
@@ -27773,76 +27773,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>168.883215127945</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>167.4464568944399</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>170.3394424699794</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>211.6331360021768</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>238.6174795018098</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>224.541075671891</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>288.6665082522452</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="8">
@@ -27852,37 +27852,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>351.1867109187684</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>16.81291084694001</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27891,37 +27891,37 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>236.785106778059</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.1830790232068</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="9">
@@ -27931,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>69.51804420162362</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27976,31 +27976,31 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>31.13081250099125</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>234.1447276072476</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>263.1877141458868</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="10">
@@ -28010,76 +28010,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>168.883215127945</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>167.4464568944399</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>170.3394424699794</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>133.1381297789385</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>88.2262143767183</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>59.27569846418345</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>53.81519614675737</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>44.43848373237326</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>63.26597710615634</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>80.54391191246145</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>142.493864959141</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>211.6331360021768</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>238.6174795018098</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>224.541075671891</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>288.6665082522452</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="11">
@@ -31840,7 +31840,7 @@
         <v>33.97312279957858</v>
       </c>
       <c r="J12" t="n">
-        <v>73.03491363274843</v>
+        <v>93.22484563384998</v>
       </c>
       <c r="K12" t="n">
         <v>159.3361098231955</v>
@@ -31858,10 +31858,10 @@
         <v>234.7694257972916</v>
       </c>
       <c r="P12" t="n">
-        <v>188.4231618405162</v>
+        <v>83.3763660823597</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.9558937527306</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R12" t="n">
         <v>61.26414348418275</v>
@@ -32077,7 +32077,7 @@
         <v>33.97312279957858</v>
       </c>
       <c r="J15" t="n">
-        <v>93.22484563384998</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K15" t="n">
         <v>159.3361098231955</v>
@@ -32314,7 +32314,7 @@
         <v>33.97312279957858</v>
       </c>
       <c r="J18" t="n">
-        <v>93.22484563384998</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K18" t="n">
         <v>159.3361098231955</v>
@@ -32326,7 +32326,7 @@
         <v>250.0162170868349</v>
       </c>
       <c r="N18" t="n">
-        <v>222.8214226865084</v>
+        <v>256.633402406651</v>
       </c>
       <c r="O18" t="n">
         <v>234.7694257972916</v>
@@ -32563,7 +32563,7 @@
         <v>250.0162170868349</v>
       </c>
       <c r="N21" t="n">
-        <v>80.46832682898102</v>
+        <v>256.633402406651</v>
       </c>
       <c r="O21" t="n">
         <v>234.7694257972916</v>
@@ -32788,19 +32788,19 @@
         <v>33.97312279957858</v>
       </c>
       <c r="J24" t="n">
-        <v>93.22484563384998</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K24" t="n">
-        <v>159.3361098231955</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>214.2470629545398</v>
       </c>
       <c r="M24" t="n">
-        <v>250.0162170868349</v>
+        <v>236.3941693677938</v>
       </c>
       <c r="N24" t="n">
-        <v>171.7765386495961</v>
+        <v>256.633402406651</v>
       </c>
       <c r="O24" t="n">
         <v>234.7694257972916</v>
@@ -33025,7 +33025,7 @@
         <v>33.97312279957858</v>
       </c>
       <c r="J27" t="n">
-        <v>93.22484563384998</v>
+        <v>85.29299989559506</v>
       </c>
       <c r="K27" t="n">
         <v>159.3361098231955</v>
@@ -33037,13 +33037,13 @@
         <v>250.0162170868349</v>
       </c>
       <c r="N27" t="n">
-        <v>80.46832682898193</v>
+        <v>256.633402406651</v>
       </c>
       <c r="O27" t="n">
         <v>234.7694257972916</v>
       </c>
       <c r="P27" t="n">
-        <v>188.4231618405162</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>125.9558937527306</v>
@@ -33265,7 +33265,7 @@
         <v>93.22484563384998</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>159.3361098231955</v>
       </c>
       <c r="L30" t="n">
         <v>214.2470629545398</v>
@@ -33283,7 +33283,7 @@
         <v>188.4231618405162</v>
       </c>
       <c r="Q30" t="n">
-        <v>109.126927998257</v>
+        <v>125.9558937527306</v>
       </c>
       <c r="R30" t="n">
         <v>61.26414348418275</v>
@@ -33508,7 +33508,7 @@
         <v>214.2470629545398</v>
       </c>
       <c r="M33" t="n">
-        <v>250.0162170868349</v>
+        <v>53.66120950806422</v>
       </c>
       <c r="N33" t="n">
         <v>256.633402406651</v>
@@ -33517,7 +33517,7 @@
         <v>234.7694257972916</v>
       </c>
       <c r="P33" t="n">
-        <v>12.25808626284735</v>
+        <v>188.4231618405162</v>
       </c>
       <c r="Q33" t="n">
         <v>125.9558937527306</v>
@@ -33748,7 +33748,7 @@
         <v>250.0162170868349</v>
       </c>
       <c r="N36" t="n">
-        <v>60.27839482788039</v>
+        <v>60.27839482787991</v>
       </c>
       <c r="O36" t="n">
         <v>234.7694257972916</v>
@@ -33988,13 +33988,13 @@
         <v>256.633402406651</v>
       </c>
       <c r="O39" t="n">
-        <v>234.7694257972916</v>
+        <v>226.8375800590366</v>
       </c>
       <c r="P39" t="n">
-        <v>103.5662980834619</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.64768193211606</v>
+        <v>125.9558937527306</v>
       </c>
       <c r="R39" t="n">
         <v>61.26414348418275</v>
@@ -34380,7 +34380,7 @@
         <v>323.8258085181777</v>
       </c>
       <c r="N44" t="n">
-        <v>329.0656486494614</v>
+        <v>329.0656486494615</v>
       </c>
       <c r="O44" t="n">
         <v>310.7273608164822</v>
@@ -34447,7 +34447,7 @@
         <v>33.97312279957858</v>
       </c>
       <c r="J45" t="n">
-        <v>73.03491363274843</v>
+        <v>93.22484563384998</v>
       </c>
       <c r="K45" t="n">
         <v>159.3361098231955</v>
@@ -34468,7 +34468,7 @@
         <v>188.4231618405162</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.64768193211606</v>
+        <v>125.9558937527306</v>
       </c>
       <c r="R45" t="n">
         <v>61.26414348418275</v>
@@ -34786,16 +34786,16 @@
         <v>3.516869431124803</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="N3" t="n">
-        <v>0.167855661100898</v>
+        <v>0.1678556611008989</v>
       </c>
       <c r="O3" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="P3" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3.206918035433006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1678556611008975</v>
+        <v>3.374773696533903</v>
       </c>
       <c r="N6" t="n">
         <v>3.516869431124803</v>
@@ -35257,16 +35257,16 @@
         <v>3.206918035433006</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.1678556611008975</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1678556611008975</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="N9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="O9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>3.516869431124803</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K12" t="n">
         <v>162.5430278586285</v>
@@ -35503,13 +35503,13 @@
         <v>407.010372239607</v>
       </c>
       <c r="O12" t="n">
-        <v>139.8597148887212</v>
+        <v>316.0247904663902</v>
       </c>
       <c r="P12" t="n">
-        <v>231.3382588737126</v>
+        <v>126.2914631155561</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.30821182061453</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.18993200110155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>162.5430278586285</v>
       </c>
       <c r="L15" t="n">
-        <v>285.5152633797348</v>
+        <v>109.3501878020653</v>
       </c>
       <c r="M15" t="n">
-        <v>182.0345694332014</v>
+        <v>378.3895770119725</v>
       </c>
       <c r="N15" t="n">
         <v>407.010372239607</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.18993200110155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>162.5430278586285</v>
       </c>
       <c r="L18" t="n">
         <v>285.5152633797348</v>
@@ -35974,10 +35974,10 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N18" t="n">
-        <v>373.1983925194644</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O18" t="n">
-        <v>316.0247904663902</v>
+        <v>139.8597148887207</v>
       </c>
       <c r="P18" t="n">
         <v>231.3382588737126</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K21" t="n">
-        <v>162.5430278586285</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>285.5152633797348</v>
@@ -36211,13 +36211,13 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N21" t="n">
-        <v>230.845296661937</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O21" t="n">
         <v>316.0247904663902</v>
       </c>
       <c r="P21" t="n">
-        <v>231.3382588737126</v>
+        <v>197.5262791535704</v>
       </c>
       <c r="Q21" t="n">
         <v>91.30821182061453</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>162.5430278586285</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>285.5152633797348</v>
       </c>
       <c r="M24" t="n">
-        <v>378.3895770119725</v>
+        <v>364.7675292929314</v>
       </c>
       <c r="N24" t="n">
-        <v>322.1535084825521</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O24" t="n">
         <v>316.0247904663902</v>
@@ -36457,7 +36457,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>12.25808626284664</v>
       </c>
       <c r="K27" t="n">
         <v>162.5430278586285</v>
@@ -36685,13 +36685,13 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N27" t="n">
-        <v>230.8452966619379</v>
+        <v>407.010372239607</v>
       </c>
       <c r="O27" t="n">
         <v>316.0247904663902</v>
       </c>
       <c r="P27" t="n">
-        <v>231.3382588737126</v>
+        <v>42.91509703319639</v>
       </c>
       <c r="Q27" t="n">
         <v>91.30821182061453</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K30" t="n">
-        <v>3.206918035433006</v>
+        <v>57.49623210047196</v>
       </c>
       <c r="L30" t="n">
         <v>285.5152633797348</v>
@@ -36931,7 +36931,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.47924606614095</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K33" t="n">
         <v>162.5430278586285</v>
@@ -37156,7 +37156,7 @@
         <v>285.5152633797348</v>
       </c>
       <c r="M33" t="n">
-        <v>378.3895770119725</v>
+        <v>182.0345694332018</v>
       </c>
       <c r="N33" t="n">
         <v>407.010372239607</v>
@@ -37165,7 +37165,7 @@
         <v>316.0247904663902</v>
       </c>
       <c r="P33" t="n">
-        <v>55.17318329604374</v>
+        <v>231.3382588737126</v>
       </c>
       <c r="Q33" t="n">
         <v>91.30821182061453</v>
@@ -37396,7 +37396,7 @@
         <v>378.3895770119725</v>
       </c>
       <c r="N36" t="n">
-        <v>210.6553646608364</v>
+        <v>210.6553646608359</v>
       </c>
       <c r="O36" t="n">
         <v>316.0247904663902</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K39" t="n">
         <v>162.5430278586285</v>
@@ -37636,13 +37636,13 @@
         <v>407.010372239607</v>
       </c>
       <c r="O39" t="n">
-        <v>316.0247904663902</v>
+        <v>308.0929447281351</v>
       </c>
       <c r="P39" t="n">
-        <v>146.4813951166583</v>
+        <v>42.91509703319639</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K42" t="n">
         <v>162.5430278586285</v>
       </c>
       <c r="L42" t="n">
-        <v>285.5152633797348</v>
+        <v>89.16025580096372</v>
       </c>
       <c r="M42" t="n">
-        <v>293.5327132549175</v>
+        <v>378.3895770119725</v>
       </c>
       <c r="N42" t="n">
         <v>407.010372239607</v>
@@ -37879,7 +37879,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>91.30821182061453</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>334.0881736842605</v>
       </c>
       <c r="N44" t="n">
-        <v>332.5825180805862</v>
+        <v>332.5825180805863</v>
       </c>
       <c r="O44" t="n">
         <v>276.7660603402834</v>
@@ -38037,7 +38037,7 @@
         <v>191.6199215989935</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.52028659103703</v>
+        <v>65.52028659103699</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>20.18993200110155</v>
       </c>
       <c r="K45" t="n">
-        <v>77.68616410157351</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>285.5152633797348</v>
@@ -38116,7 +38116,7 @@
         <v>231.3382588737126</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>57.49623210047186</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
